--- a/biology/Zoologie/Appendice_biramé/Appendice_biramé.xlsx
+++ b/biology/Zoologie/Appendice_biramé/Appendice_biramé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appendice_biram%C3%A9</t>
+          <t>Appendice_biramé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les arthropodes, un appendice biramé est un segment ou patte dédoublé en deux parties ou branches ou rameau (ramus en latin singulier, rami au pluriel).
 Ces deux branches sont fixées sur le corps de l'animal par une branche unique, appelée basipodite.
